--- a/xlsx/个人主义_intext.xlsx
+++ b/xlsx/个人主义_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
   <si>
     <t>个人主义</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由主義</t>
+    <t>自由主义</t>
   </si>
   <si>
     <t>政策_政策_政治_个人主义</t>
@@ -47,21 +47,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>經濟自由主義</t>
+    <t>经济自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>個人主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB</t>
   </si>
   <si>
@@ -89,7 +86,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>市場經濟</t>
+    <t>市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E7%A4%BE%E4%BC%9A</t>
@@ -101,55 +98,55 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>人民主權</t>
+    <t>人民主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>權利</t>
+    <t>权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>政教分離</t>
+    <t>政教分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府自由主義</t>
+    <t>无政府自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典自由主義</t>
+    <t>古典自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>保守自由主義</t>
+    <t>保守自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族自由主義</t>
+    <t>民族自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新自由主義</t>
+    <t>新自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E8%BF%9B%E4%B8%BB%E4%B9%89</t>
@@ -161,13 +158,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
   </si>
   <si>
-    <t>約翰·洛克</t>
+    <t>约翰·洛克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E6%96%AF%E5%AF%86</t>
   </si>
   <si>
-    <t>亞當·斯密</t>
+    <t>亚当·斯密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%C2%B7%E7%A6%8F%E6%A0%BC%E6%A3%AE</t>
@@ -179,13 +176,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E5%82%91%E4%BD%9B%E9%81%9C</t>
   </si>
   <si>
-    <t>湯瑪斯·傑佛遜</t>
+    <t>汤玛斯·杰佛逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E6%BD%98%E6%81%A9</t>
   </si>
   <si>
-    <t>湯瑪斯·潘恩</t>
+    <t>汤玛斯·潘恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E4%BC%91%E8%B0%9F</t>
@@ -197,13 +194,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B3%A9</t>
   </si>
   <si>
-    <t>孟德斯鳩</t>
+    <t>孟德斯鸠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9B%BC%E5%8A%AA%E7%88%BE%C2%B7%E5%BA%B7%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊曼努爾·康德</t>
+    <t>伊曼努尔·康德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E9%87%8C%E7%B1%B3%C2%B7%E8%BE%B9%E6%B2%81</t>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%A6%AE%C2%B7%E6%B4%AA%E5%A0%A1</t>
   </si>
   <si>
-    <t>威廉·馮·洪堡</t>
+    <t>威廉·冯·洪堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E5%B7%B4%E6%96%AF%E5%A4%8F</t>
@@ -257,13 +254,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%89%B9%E8%98%AD%C2%B7%E7%BE%85%E7%B4%A0</t>
   </si>
   <si>
-    <t>伯特蘭·羅素</t>
+    <t>伯特兰·罗素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%B6%AD%E5%B8%8C%C2%B7%E9%A6%AE%C2%B7%E7%B1%B3%E5%A1%9E%E6%96%AF</t>
   </si>
   <si>
-    <t>路德維希·馮·米塞斯</t>
+    <t>路德维希·冯·米塞斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E5%93%88%E8%80%B6%E5%85%8B</t>
@@ -281,13 +278,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E7%BE%85%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·羅爾斯</t>
+    <t>约翰·罗尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%AB%BE%E9%BD%8A%E5%85%8B</t>
   </si>
   <si>
-    <t>羅伯特·諾齊克</t>
+    <t>罗伯特·诺齐克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A5%E5%A4%8D</t>
@@ -317,19 +314,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%87%AA%E7%94%B1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際自由聯盟</t>
+    <t>国际自由联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E6%94%B9%E9%9D%A9%E9%BB%A8</t>
   </si>
   <si>
-    <t>歐洲自由民主改革黨</t>
+    <t>欧洲自由民主改革党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐洲自由民主聯盟</t>
+    <t>欧洲自由民主联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Liberalism</t>
@@ -341,49 +338,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>集體主義</t>
+    <t>集体主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%B7%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>利己主義</t>
+    <t>利己主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治哲學</t>
+    <t>政治哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>個人</t>
+    <t>个人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>法西斯主義</t>
+    <t>法西斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -395,19 +392,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E6%9A%B4%E5%8A%9B</t>
   </si>
   <si>
-    <t>多數暴力</t>
+    <t>多数暴力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>個人無政府主義</t>
+    <t>个人无政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9-%E9%9B%85%E5%85%8B%C2%B7%E5%8D%A2%E6%A2%AD</t>
@@ -425,43 +422,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%98%E9%AB%94%E8%BF%B7%E6%80%9D</t>
   </si>
   <si>
-    <t>團體迷思</t>
+    <t>团体迷思</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%8A%A0%E7%88%BE%E5%B8%83%E9%9B%B7%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·加爾布雷斯</t>
+    <t>约翰·加尔布雷斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>極權主義</t>
+    <t>极权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0</t>
   </si>
   <si>
-    <t>二戰</t>
+    <t>二战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府共產主義</t>
+    <t>无政府共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
@@ -479,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -491,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%B0%91%E5%81%A5%E4%BF%9D</t>
@@ -503,25 +500,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>健康保險</t>
+    <t>健康保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>保險</t>
+    <t>保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>醫療保險</t>
+    <t>医疗保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AF%8C%E8%AB%96</t>
   </si>
   <si>
-    <t>國富論</t>
+    <t>国富论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E6%B3%A2%E6%99%AE%E5%B0%94</t>
@@ -533,13 +530,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民粹主義</t>
+    <t>民粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9B%B8%E4%BA%9E%C2%B7%E6%B2%83%E5%80%AB</t>
   </si>
   <si>
-    <t>約書亞·沃倫</t>
+    <t>约书亚·沃伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -551,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%9E%E7%9C%BE%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>從眾行為</t>
+    <t>从众行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%BA%E5%87%8C</t>
@@ -563,27 +560,21 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E8%87%AA%E8%A1%9B%E6%AC%8A</t>
   </si>
   <si>
-    <t>集體自衛權</t>
+    <t>集体自卫权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E4%BD%93%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>集体主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%97%E8%85%A6</t>
   </si>
   <si>
-    <t>洗腦</t>
+    <t>洗脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A2%E4%BD%93%E8%BF%B7%E6%80%9D</t>
   </si>
   <si>
-    <t>团体迷思</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -611,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E5%84%95%E5%A3%93%E5%8A%9B</t>
   </si>
   <si>
-    <t>同儕壓力</t>
+    <t>同侪压力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E8%A1%8C%E8%AF%84%E5%AE%A1</t>
@@ -647,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E4%BA%BA%E6%9A%B4%E6%94%BF</t>
   </si>
   <si>
-    <t>多數人暴政</t>
+    <t>多数人暴政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C%E5%88%A4%E5%AE%98%E6%94%BF%E6%B2%BB</t>
@@ -701,13 +692,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%98%E8%A1%B7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>折衷主義</t>
+    <t>折衷主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%89%E4%BA%8B</t>
   </si>
   <si>
-    <t>舉事</t>
+    <t>举事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%BD%E5%88%BA</t>
@@ -719,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -731,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1296,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>49</v>
@@ -1331,10 +1322,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
         <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -1360,10 +1351,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
         <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1389,10 +1380,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
         <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1418,10 +1409,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
         <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1447,10 +1438,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
         <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1476,10 +1467,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1505,10 +1496,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
         <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1534,10 +1525,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
         <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -1563,10 +1554,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
         <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1592,10 +1583,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1621,10 +1612,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
@@ -1650,10 +1641,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1679,10 +1670,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1708,10 +1699,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -1737,10 +1728,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1766,10 +1757,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1795,10 +1786,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1824,10 +1815,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1853,10 +1844,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1882,10 +1873,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1911,10 +1902,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1940,10 +1931,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1969,10 +1960,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1998,10 +1989,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2027,10 +2018,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2056,10 +2047,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2085,10 +2076,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2114,10 +2105,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2143,10 +2134,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2172,10 +2163,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2201,10 +2192,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2230,10 +2221,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2259,10 +2250,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2288,10 +2279,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2317,10 +2308,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2346,10 +2337,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2375,10 +2366,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2404,10 +2395,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2433,10 +2424,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2462,10 +2453,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2491,10 +2482,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2520,10 +2511,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2549,10 +2540,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2578,10 +2569,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2607,10 +2598,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2636,10 +2627,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>4</v>
@@ -2694,10 +2685,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>19</v>
@@ -2723,10 +2714,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>38</v>
@@ -2752,10 +2743,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>10</v>
@@ -2781,10 +2772,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -2810,10 +2801,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" t="s">
         <v>35</v>
-      </c>
-      <c r="F60" t="s">
-        <v>36</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -2839,10 +2830,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
         <v>115</v>
-      </c>
-      <c r="F61" t="s">
-        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -2868,10 +2859,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
         <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>99</v>
@@ -2897,10 +2888,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -2926,10 +2917,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2955,10 +2946,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>11</v>
@@ -2984,10 +2975,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
         <v>125</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3013,10 +3004,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
         <v>127</v>
-      </c>
-      <c r="F67" t="s">
-        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3042,10 +3033,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -3071,10 +3062,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" t="s">
-        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3100,10 +3091,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3129,10 +3120,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3158,10 +3149,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3187,10 +3178,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3216,10 +3207,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3245,10 +3236,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3274,10 +3265,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3303,10 +3294,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3332,10 +3323,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3361,10 +3352,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3390,10 +3381,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>6</v>
@@ -3419,10 +3410,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -3448,10 +3439,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>9</v>
@@ -3477,10 +3468,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3506,10 +3497,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>136</v>
+      </c>
+      <c r="F84" t="s">
         <v>137</v>
-      </c>
-      <c r="F84" t="s">
-        <v>138</v>
       </c>
       <c r="G84" t="n">
         <v>8</v>
@@ -3535,10 +3526,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>160</v>
+      </c>
+      <c r="F85" t="s">
         <v>161</v>
-      </c>
-      <c r="F85" t="s">
-        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3564,10 +3555,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" t="s">
         <v>163</v>
-      </c>
-      <c r="F86" t="s">
-        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -3593,10 +3584,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>164</v>
+      </c>
+      <c r="F87" t="s">
         <v>165</v>
-      </c>
-      <c r="F87" t="s">
-        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3622,10 +3613,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>166</v>
+      </c>
+      <c r="F88" t="s">
         <v>167</v>
-      </c>
-      <c r="F88" t="s">
-        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3651,10 +3642,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>168</v>
+      </c>
+      <c r="F89" t="s">
         <v>169</v>
-      </c>
-      <c r="F89" t="s">
-        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3680,10 +3671,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" t="s">
         <v>171</v>
-      </c>
-      <c r="F90" t="s">
-        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3709,10 +3700,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" t="s">
         <v>173</v>
-      </c>
-      <c r="F91" t="s">
-        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3738,10 +3729,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>174</v>
+      </c>
+      <c r="F92" t="s">
         <v>175</v>
-      </c>
-      <c r="F92" t="s">
-        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3767,10 +3758,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>176</v>
+      </c>
+      <c r="F93" t="s">
         <v>177</v>
-      </c>
-      <c r="F93" t="s">
-        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>4</v>
@@ -3796,10 +3787,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>178</v>
+      </c>
+      <c r="F94" t="s">
         <v>179</v>
-      </c>
-      <c r="F94" t="s">
-        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3825,10 +3816,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>180</v>
+      </c>
+      <c r="F95" t="s">
         <v>181</v>
-      </c>
-      <c r="F95" t="s">
-        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3854,10 +3845,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3883,10 +3874,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3912,10 +3903,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3941,10 +3932,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3970,10 +3961,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3999,10 +3990,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4028,10 +4019,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4057,10 +4048,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4086,10 +4077,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4115,10 +4106,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4144,10 +4135,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4173,10 +4164,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4202,10 +4193,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4231,10 +4222,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4260,10 +4251,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4289,10 +4280,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4318,10 +4309,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4347,10 +4338,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4376,10 +4367,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4405,10 +4396,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4434,10 +4425,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4463,10 +4454,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4492,10 +4483,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4521,10 +4512,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4550,10 +4541,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4579,10 +4570,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -4608,10 +4599,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4637,10 +4628,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
